--- a/xlsx2.xlsx
+++ b/xlsx2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db1start\exercicioAula03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>fsdfsdf</t>
+  </si>
+  <si>
+    <t>dasdasda</t>
+  </si>
+  <si>
+    <t>ddasda</t>
+  </si>
+  <si>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>fasg</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>faz</t>
   </si>
 </sst>
 </file>
@@ -344,17 +368,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6"/>
+  <dimension ref="D6:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
